--- a/Output/sociality.xlsx
+++ b/Output/sociality.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_1DD536DB2CFC7EF0BF2DE7D118A7B485CE36A6F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CBD4BB-14E2-4241-B761-4EB2AAFEF848}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32010" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2159,9 +2159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,9 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F104"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
